--- a/data/greene_iceshelf_area_and_mass.xlsx
+++ b/data/greene_iceshelf_area_and_mass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgreene/Documents/GitHub/ice-shelf-geometry/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032BEBC1-5868-754A-AC29-16BD748AFF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473804A4-0F4F-284B-A3C8-E267ED627CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="840" windowWidth="27420" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="820" windowWidth="27420" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="greene_iceshelf_area_and_mass" sheetId="1" r:id="rId1"/>
@@ -1806,8 +1806,8 @@
   <dimension ref="A1:DF192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DD192" sqref="DD192"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ194" sqref="AJ194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/greene_iceshelf_area_and_mass.xlsx
+++ b/data/greene_iceshelf_area_and_mass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgreene/Documents/GitHub/ice-shelf-geometry/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73803A0-64C2-5741-9158-F3ECC5C51A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA6DFC4-771D-9040-8E97-ECDDD0B3FB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="1720" windowWidth="27420" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,6 +97,39 @@
             <family val="2"/>
           </rPr>
           <t>Mass uncertainty assumes a fully correlated (additive) 1 pixel area uncertainty along the ocean edge for each ice shelf. Mass uncertainty also assumes a fully correlated 10 m thickness uncertainty for any pixels that are deemed to be ice at least once and ocean at least once during the observation period. To allow estimates of mass change uncertainty, the mass uncertainty estimates in this shaded region of the spreadsheet neglect thickness uncertainty for any pixels that are observed to be ice in all 24 observations. In other words, the mass uncertainty estimates represent the mass uncertainty relative to the minimum observed extents of each ice shelf.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F189" authorId="0" shapeId="0" xr:uid="{C439B822-44EA-8A43-AF34-B2F76AB0F4BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chad Greene:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assuming errors are independent from one ice shelf to the next, this is the root-sum-square of all finite values above.</t>
         </r>
       </text>
     </comment>

--- a/data/greene_iceshelf_area_and_mass.xlsx
+++ b/data/greene_iceshelf_area_and_mass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgreene/Documents/GitHub/ice-shelf-geometry/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6A5D43-4EA3-354D-9C4A-72A74A5B04B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581CF0A4-2562-7948-980C-14129A4B266C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="1700" windowWidth="27420" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="205">
   <si>
     <t>Abbot</t>
   </si>
@@ -750,6 +750,9 @@
   </si>
   <si>
     <t>control run</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
 </sst>
 </file>
@@ -63146,8 +63149,12 @@
       <c r="B189" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C189" s="19"/>
-      <c r="D189" s="20"/>
+      <c r="C189" s="19">
+        <v>-90</v>
+      </c>
+      <c r="D189" s="20" t="s">
+        <v>204</v>
+      </c>
       <c r="E189" s="21">
         <v>-258.46768803385902</v>
       </c>
